--- a/GroceryApplication/src/test/resources/TestData.xlsx
+++ b/GroceryApplication/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\git\GroceryApplication\GroceryApplicationProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remya\git\GroceryApplication\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3B430-7D2D-4DEA-92D8-C463CB4F7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB93D1F-2870-4523-A9A4-FDA1B7241AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{7DE7987B-6C38-4540-8212-58F6E207B931}"/>
+    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8880" xr2:uid="{7DE7987B-6C38-4540-8212-58F6E207B931}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -428,19 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB41A160-7B3B-4832-872B-96E621C4DE0B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -480,12 +480,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -501,9 +509,9 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -514,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -525,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
